--- a/Scrum/ToDo0.2.xlsx
+++ b/Scrum/ToDo0.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcus\Desktop\GameProject\RolePlayingGame\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7C7B552-7CD1-455F-B180-C89B2C5A9646}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CDF7C3-EA59-4EDA-A39B-A4B8BD485746}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="20">
   <si>
     <t>Procent udført</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>Diverse</t>
+  </si>
+  <si>
+    <t>Risikoanalyse</t>
   </si>
 </sst>
 </file>
@@ -216,7 +219,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
@@ -241,6 +244,9 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Dato" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -615,8 +621,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Projekt1" displayName="Projekt1" ref="B6:H12" totalsRowShown="0">
-  <autoFilter ref="B6:H12" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Projekt1" displayName="Projekt1" ref="B6:H13" totalsRowShown="0">
+  <autoFilter ref="B6:H13" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Procent udført"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Job" dataCellStyle="Normal"/>
@@ -1025,10 +1031,10 @@
     <tabColor theme="5" tint="0.79998168889431442"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:H12"/>
+  <dimension ref="B1:H13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1202,12 +1208,31 @@
       </c>
       <c r="H12" s="6"/>
     </row>
+    <row r="13" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="5">
+        <v>0</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="6"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B5:H5"/>
   </mergeCells>
   <conditionalFormatting sqref="B7">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1216,7 +1241,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B12">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
